--- a/tablica.xlsx
+++ b/tablica.xlsx
@@ -59,8 +59,22 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -72,7 +86,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
